--- a/src/Respuestas_Form.xlsx
+++ b/src/Respuestas_Form.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="118">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -379,6 +379,36 @@
   </si>
   <si>
     <t>A través de videos educativos en aplicaciones móviles, redes sociales, páginas web, y similares., Recibiendo asesorías personalizadas con expertos., Mediante juegos o actividades interactivas sobre ahorro.</t>
+  </si>
+  <si>
+    <t>Bachillerato</t>
+  </si>
+  <si>
+    <t>Comuna Villavicencio</t>
+  </si>
+  <si>
+    <t>Comuna Olímpica</t>
+  </si>
+  <si>
+    <t>Realizo un presupuesto mensual para controlar mis gastos., Aparto un porcentaje fijo de mis ingresos cada mes., Reduzco gastos en actividades no esenciales (ocio, entretenimiento, etc.)., Compro productos en promoción o al por mayor para ahorrar en compras.</t>
+  </si>
+  <si>
+    <t>Utilizo herramientas digitales (aplicaciones bancarias o apps de finanzas)., Reduzco gastos en actividades no esenciales (ocio, entretenimiento, etc.).</t>
+  </si>
+  <si>
+    <t>Entre 3 y 4 SMMLV</t>
+  </si>
+  <si>
+    <t>Realizo un presupuesto mensual para controlar mis gastos., Aparto un porcentaje fijo de mis ingresos cada mes., Utilizo herramientas digitales (aplicaciones bancarias o apps de finanzas)., Reduzco gastos en actividades no esenciales (ocio, entretenimiento, etc.)., Compro productos en promoción o al por mayor para ahorrar en compras., Utilizo sistemas informales como “cadenas de ahorro” (natilleras, tandas, etc.)., Invierto en productos financieros (CDTs, fondos de inversión, etc.).</t>
+  </si>
+  <si>
+    <t>Participando en talleres o cursos presenciales., A través de videos educativos en aplicaciones móviles, redes sociales, páginas web, y similares., Recibiendo asesorías personalizadas con expertos.</t>
+  </si>
+  <si>
+    <t>Créditos de vivienda o vehículo, No tengo deudas activas</t>
+  </si>
+  <si>
+    <t>Aparto un porcentaje fijo de mis ingresos cada mes., Compro productos en promoción o al por mayor para ahorrar en compras.</t>
   </si>
 </sst>
 </file>
@@ -583,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -622,6 +652,24 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -690,7 +738,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U22" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U28" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="21">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="¿Tu lugar de residencia es?" id="2"/>
@@ -2361,6 +2409,396 @@
         <v>107</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="16">
+        <v>45628.70201342592</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13">
+        <v>45628.71234356481</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16">
+        <v>45628.73783787037</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13">
+        <v>45628.74285841435</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16">
+        <v>45628.75070574074</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19">
+        <v>45628.75521791667</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="S28" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/src/Respuestas_Form.xlsx
+++ b/src/Respuestas_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lauren\Documentos\Cursos Online\Programacion\Talento Tech\Proyecto Final\www.chinchin.com\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A703F8DD-0370-461B-ACB5-E8B714AF8FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191CB1B6-69AF-4B06-948F-9282D212EAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1088,9 +1087,9 @@
   </sheetPr>
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
